--- a/3 sınfı yazilim proje.xlsx
+++ b/3 sınfı yazilim proje.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darwinevolves\Documents\GitHub\yazilim_muhendisligi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101D2A6C-A261-4705-B152-DD2994C836CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC07CD1-B4EE-4A67-884A-243473D58141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MainPage" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>No</t>
   </si>
@@ -1161,7 +1161,7 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
@@ -3317,18 +3317,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81D6B98-4EFD-49E4-8E4B-7CA59CC002D7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="178" t="s">
         <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
